--- a/target/classes/testdata.xlsx
+++ b/target/classes/testdata.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18792" windowHeight="3876" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18792" windowHeight="3876" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
     <sheet name="ProdLogin" sheetId="2" r:id="rId2"/>
     <sheet name="Calendar" sheetId="3" r:id="rId3"/>
     <sheet name="TestData" sheetId="4" r:id="rId4"/>
+    <sheet name="NewReportTestData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
   <si>
     <t>UserName</t>
   </si>
@@ -179,6 +180,15 @@
   </si>
   <si>
     <t>ExecutionStatus</t>
+  </si>
+  <si>
+    <t>ExpectedReportTitle</t>
+  </si>
+  <si>
+    <t>ExpectedPageViewCount</t>
+  </si>
+  <si>
+    <t>398</t>
   </si>
 </sst>
 </file>
@@ -696,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,4 +1012,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/target/classes/testdata.xlsx
+++ b/target/classes/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18792" windowHeight="3876" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18792" windowHeight="3876" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
   <si>
     <t>UserName</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>//tbody/tr[last()]/td[4]/b</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>No</t>
@@ -632,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,7 +704,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,7 +730,7 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -767,7 +764,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -784,7 +781,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -801,7 +798,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -818,7 +815,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -835,7 +832,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -852,7 +849,7 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -869,7 +866,7 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -886,7 +883,7 @@
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -903,7 +900,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -920,7 +917,7 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -937,7 +934,7 @@
         <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -954,7 +951,7 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -971,7 +968,7 @@
         <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -988,7 +985,7 @@
         <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1005,7 +1002,7 @@
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1018,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,10 +1043,10 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1069,7 +1066,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/testdata.xlsx
+++ b/target/classes/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18792" windowHeight="3876" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18792" windowHeight="3876" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="221">
   <si>
     <t>UserName</t>
   </si>
@@ -183,6 +183,501 @@
   </si>
   <si>
     <t>ExpectedPageViewCount</t>
+  </si>
+  <si>
+    <t>Jaguar F-Type</t>
+  </si>
+  <si>
+    <t>Mazda Airbag</t>
+  </si>
+  <si>
+    <t>Mercedes Benz</t>
+  </si>
+  <si>
+    <t>OnPoint OnTarget Combined</t>
+  </si>
+  <si>
+    <t>OnTarget</t>
+  </si>
+  <si>
+    <t>Used VIN Video - GM</t>
+  </si>
+  <si>
+    <t>eOnPoint</t>
+  </si>
+  <si>
+    <t>eStrike Service - GM</t>
+  </si>
+  <si>
+    <t>//span[text()='Jaguar F Type']</t>
+  </si>
+  <si>
+    <t>//span[text()='Mazda Airbag']</t>
+  </si>
+  <si>
+    <t>//span[text()='Epsilon Mercedes Benz']</t>
+  </si>
+  <si>
+    <t>//span[text()='Epsilon OnTarget and OnPoint Report']</t>
+  </si>
+  <si>
+    <t>//span[text()='Epsilon OnTarget Report']</t>
+  </si>
+  <si>
+    <t>//span[text()='Epsilon Used VIN Video - GM']</t>
+  </si>
+  <si>
+    <t>//span[text()='Epsilon eOnPoint Report']</t>
+  </si>
+  <si>
+    <t>//span[text()='Epsilon eStrike Service - GM ']</t>
+  </si>
+  <si>
+    <t>Epsilon Sales Touch</t>
+  </si>
+  <si>
+    <t>Epsilon BMW T2</t>
+  </si>
+  <si>
+    <t>Epsilon Business Elite Standard, Non-Standard Report</t>
+  </si>
+  <si>
+    <t>Epsilon Car Care Report</t>
+  </si>
+  <si>
+    <t>EVO OLA Combined Report</t>
+  </si>
+  <si>
+    <t>Epsilon OLA Report</t>
+  </si>
+  <si>
+    <t>Epsilon CSSR Lease Report</t>
+  </si>
+  <si>
+    <t>Cherokee Report</t>
+  </si>
+  <si>
+    <t>Ford Report</t>
+  </si>
+  <si>
+    <t>Ford Truck Report</t>
+  </si>
+  <si>
+    <t>Honda Lcc</t>
+  </si>
+  <si>
+    <t>Epsilon National LMA Report</t>
+  </si>
+  <si>
+    <t>Jaguar F Type</t>
+  </si>
+  <si>
+    <t>Epsilon Mercedes Benz</t>
+  </si>
+  <si>
+    <t>Epsilon OnTarget and OnPoint Report</t>
+  </si>
+  <si>
+    <t>Epsilon OnTarget Report</t>
+  </si>
+  <si>
+    <t>Epsilon Used VIN Video - GM</t>
+  </si>
+  <si>
+    <t>Epsilon eOnPoint Report</t>
+  </si>
+  <si>
+    <t>Epsilon eStrike Service - GM</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>CSSR - EVO</t>
+  </si>
+  <si>
+    <t>//span[text()='Epsilon EVO Report']</t>
+  </si>
+  <si>
+    <t>Epsilon EVO Report</t>
+  </si>
+  <si>
+    <t>729</t>
+  </si>
+  <si>
+    <t>5005</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1328</t>
+  </si>
+  <si>
+    <t>1579</t>
+  </si>
+  <si>
+    <t>3319</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>891</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>5734</t>
+  </si>
+  <si>
+    <t>Bmw Affinitiv Tire</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>BMW SCP Affinitiv</t>
+  </si>
+  <si>
+    <t>Bmw Affinitiv Scp</t>
+  </si>
+  <si>
+    <t>Lexus Affinitiv Tire</t>
+  </si>
+  <si>
+    <t>//span[text()='Bmw Affinitiv Scp']</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>//span[text()='Lexus Affinitiv Tire']</t>
+  </si>
+  <si>
+    <t>Campaign Manager</t>
+  </si>
+  <si>
+    <t>Agency 720</t>
+  </si>
+  <si>
+    <t>Agency 720 DC and GA</t>
+  </si>
+  <si>
+    <t>Ford Sales</t>
+  </si>
+  <si>
+    <t>Kia</t>
+  </si>
+  <si>
+    <t>//span[text()='Agency 720']</t>
+  </si>
+  <si>
+    <t>//tbody/tr[last()]/td[2]/b</t>
+  </si>
+  <si>
+    <t>//span[text()='Intercept Report : A720 Heartland Chevy Dealers']</t>
+  </si>
+  <si>
+    <t>//tbody/tr[last()-1]/td[10]/b</t>
+  </si>
+  <si>
+    <t>1889</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>//span[text()='Kia Report']</t>
+  </si>
+  <si>
+    <t>Kia Report</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>Chrysler Pacifica</t>
+  </si>
+  <si>
+    <t>//span[text()='Chrysler Pacifica Report']</t>
+  </si>
+  <si>
+    <t>Chrysler Pacifica Report</t>
+  </si>
+  <si>
+    <t>Dialogue Direct</t>
+  </si>
+  <si>
+    <t>Honda Airbag</t>
+  </si>
+  <si>
+    <t>//span[text()='Epsilon Honda Airbag']</t>
+  </si>
+  <si>
+    <t>Epsilon Honda Airbag</t>
+  </si>
+  <si>
+    <t>BMW T3</t>
+  </si>
+  <si>
+    <t>CBC T2.5 Commercial</t>
+  </si>
+  <si>
+    <t>California BC</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>DBC Heavy Duty Farmers</t>
+  </si>
+  <si>
+    <t>DBC Compass Compare T2.5</t>
+  </si>
+  <si>
+    <t>DBC Mopar</t>
+  </si>
+  <si>
+    <t>DBC ProMaster Commercial</t>
+  </si>
+  <si>
+    <t>FCA Lease</t>
+  </si>
+  <si>
+    <t>GLBC Jeep Lease</t>
+  </si>
+  <si>
+    <t>GLBC RAM</t>
+  </si>
+  <si>
+    <t>Infiniti Microsite</t>
+  </si>
+  <si>
+    <t>Jaguar T3</t>
+  </si>
+  <si>
+    <t>Land Rover T3</t>
+  </si>
+  <si>
+    <t>MABC T2.5 Promaster</t>
+  </si>
+  <si>
+    <t>Maserati Microsite</t>
+  </si>
+  <si>
+    <t>Mopar SEBC</t>
+  </si>
+  <si>
+    <t>Pacifica Tier 2.5</t>
+  </si>
+  <si>
+    <t>SEBC Compass</t>
+  </si>
+  <si>
+    <t>SEBC DODGE</t>
+  </si>
+  <si>
+    <t>SEBC T2.5 Alfa Romeo</t>
+  </si>
+  <si>
+    <t>WBC T2.5 Commercial</t>
+  </si>
+  <si>
+    <t>Fiat Chrysler Automobiles</t>
+  </si>
+  <si>
+    <t>//span[text()='Bmw T3']</t>
+  </si>
+  <si>
+    <t>Bmw T3</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>//span[text()='CBC T2.5 Commercial']</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>//span[text()='California BC']</t>
+  </si>
+  <si>
+    <t>//span[text()='Commercial']</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>//span[text()='DBC Heavy Duty Farmers']</t>
+  </si>
+  <si>
+    <t>//span[text()='DBC Compass Compare T2.5']</t>
+  </si>
+  <si>
+    <t>//span[text()='DBC Mopar']</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>//span[text()='DBC ProMaster Commercial']</t>
+  </si>
+  <si>
+    <t>//span[text()='Fca Lease']</t>
+  </si>
+  <si>
+    <t>Fca Lease</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>//span[text()='GLBC Jeep Lease']</t>
+  </si>
+  <si>
+    <t>//span[text()='GLBC RAM']</t>
+  </si>
+  <si>
+    <t>//span[text()='Infiniti Microsite']</t>
+  </si>
+  <si>
+    <t>//span[text()='Jaguar T3']</t>
+  </si>
+  <si>
+    <t>//span[text()='Land Rover T3']</t>
+  </si>
+  <si>
+    <t>//span[text()='MABC T2.5 Promaster']</t>
+  </si>
+  <si>
+    <t>//span[text()='Maserati Microsite']</t>
+  </si>
+  <si>
+    <t>//span[text()='Pacifica Tier 2.5']</t>
+  </si>
+  <si>
+    <t>//span[text()='SEBC Compass']</t>
+  </si>
+  <si>
+    <t>//span[text()='SEBC DODGE']</t>
+  </si>
+  <si>
+    <t>//span[text()='SEBC T2.5 Alfa Romeo']</t>
+  </si>
+  <si>
+    <t>//span[text()='WBC T2.5 Commercial']</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>//span[text()='Southeast Business Center Mopar']</t>
+  </si>
+  <si>
+    <t>Southeast Business Center Mopar</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1837</t>
+  </si>
+  <si>
+    <t>LifeTouch</t>
+  </si>
+  <si>
+    <t>//span[text()='Life Touch Report']</t>
+  </si>
+  <si>
+    <t>Life Touch Report</t>
+  </si>
+  <si>
+    <t>MVP - New Schema</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>//span[text()='MVP Reports']</t>
+  </si>
+  <si>
+    <t>MVP Reports</t>
+  </si>
+  <si>
+    <t>10354</t>
+  </si>
+  <si>
+    <t>National Karate</t>
+  </si>
+  <si>
+    <t>//span[text()='National Karate Report']</t>
+  </si>
+  <si>
+    <t>National Karate Report</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>Strategic Marketing Report</t>
+  </si>
+  <si>
+    <t>Strategic Marketing</t>
+  </si>
+  <si>
+    <t>//span[text()='Strategic Marketing Report']</t>
+  </si>
+  <si>
+    <t>UnityWorks Website</t>
+  </si>
+  <si>
+    <t>//span[text()='UnityWorks Website Report']</t>
+  </si>
+  <si>
+    <t>UnityWorks Website Report</t>
+  </si>
+  <si>
+    <t>//tbody/tr[last()]/td[6]/b</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Intercept Report : A720 Heartland Chevy Dealers</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>1905</t>
   </si>
   <si>
     <t>398</t>
@@ -192,7 +687,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +701,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,10 +733,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -572,7 +1074,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,7 +1131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -701,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,6 +1507,40 @@
         <v>51</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1013,23 +1549,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="55.5546875" customWidth="1"/>
     <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" customWidth="1"/>
+    <col min="5" max="5" width="54.33203125" customWidth="1"/>
     <col min="6" max="6" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1048,8 +1585,11 @@
       <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1066,7 +1606,1334 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" t="s">
+        <v>149</v>
+      </c>
+      <c r="G44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>151</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G47" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" t="s">
+        <v>193</v>
+      </c>
+      <c r="D51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" t="s">
+        <v>194</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" t="s">
+        <v>158</v>
+      </c>
+      <c r="G53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" t="s">
+        <v>159</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" t="s">
+        <v>190</v>
+      </c>
+      <c r="D56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" t="s">
+        <v>161</v>
+      </c>
+      <c r="G56" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" t="s">
+        <v>199</v>
+      </c>
+      <c r="G57" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G58" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" t="s">
+        <v>207</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G59" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" t="s">
+        <v>209</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G60" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" t="s">
+        <v>214</v>
+      </c>
+      <c r="G61" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/testdata.xlsx
+++ b/target/classes/testdata.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Calendar" sheetId="3" r:id="rId3"/>
     <sheet name="TestData" sheetId="4" r:id="rId4"/>
     <sheet name="NewReportTestData" sheetId="5" r:id="rId5"/>
+    <sheet name="DoubleClickReportTestData" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="245">
   <si>
     <t>UserName</t>
   </si>
@@ -681,6 +682,78 @@
   </si>
   <si>
     <t>398</t>
+  </si>
+  <si>
+    <t>FCA Canada DoubleClick</t>
+  </si>
+  <si>
+    <t>RadioButton</t>
+  </si>
+  <si>
+    <t>Custom Select</t>
+  </si>
+  <si>
+    <t>TypeDropDown</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>BCSelect</t>
+  </si>
+  <si>
+    <t>ProgramSelect</t>
+  </si>
+  <si>
+    <t>CustomSelect</t>
+  </si>
+  <si>
+    <t>ApplyManagementFee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApplyContentCreationFee </t>
+  </si>
+  <si>
+    <t>RestrictCampaignStartDate</t>
+  </si>
+  <si>
+    <t>Canda</t>
+  </si>
+  <si>
+    <t>Canda-RamCherokee</t>
+  </si>
+  <si>
+    <t>Management Fees</t>
+  </si>
+  <si>
+    <t>//span[text()='FCA Canada DoubleClick Report']</t>
+  </si>
+  <si>
+    <t>//span[text()='Management Fee Table']</t>
+  </si>
+  <si>
+    <t>FCA Canada DoubleClick Report</t>
+  </si>
+  <si>
+    <t>Management Fee Table</t>
+  </si>
+  <si>
+    <t>//*[@id="weekly_report_data_table"]/tfoot/tr/td[7]</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>9,109,738</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //*[@id="mgt_fees_data_table"]/tbody/tr[last()]/td</t>
   </si>
 </sst>
 </file>
@@ -703,10 +776,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -733,11 +808,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1074,7 +1151,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1132,7 +1209,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1167,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1189,11 +1266,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1206,7 +1287,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1549,1390 +1630,1952 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="55.5546875" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="55.5546875" customWidth="1"/>
+    <col min="6" max="6" width="47.5546875" customWidth="1"/>
+    <col min="7" max="7" width="54.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" t="s">
+        <v>217</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" t="s">
+        <v>177</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" t="s">
+        <v>149</v>
+      </c>
+      <c r="I44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" t="s">
+        <v>150</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" t="s">
+        <v>151</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s">
+        <v>152</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I47" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" t="s">
+        <v>153</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I49" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" t="s">
+        <v>185</v>
+      </c>
+      <c r="F50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" t="s">
+        <v>155</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" t="s">
+        <v>193</v>
+      </c>
+      <c r="F51" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51" t="s">
+        <v>194</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" t="s">
+        <v>186</v>
+      </c>
+      <c r="F52" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" t="s">
+        <v>158</v>
+      </c>
+      <c r="I53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" t="s">
+        <v>188</v>
+      </c>
+      <c r="F54" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" t="s">
+        <v>159</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I54" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" t="s">
+        <v>125</v>
+      </c>
+      <c r="G55" t="s">
+        <v>160</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" t="s">
+        <v>161</v>
+      </c>
+      <c r="I56" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" t="s">
+        <v>199</v>
+      </c>
+      <c r="I57" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" t="s">
+        <v>201</v>
+      </c>
+      <c r="E58" t="s">
+        <v>202</v>
+      </c>
+      <c r="F58" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" t="s">
+        <v>203</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I58" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" t="s">
+        <v>206</v>
+      </c>
+      <c r="F59" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s">
+        <v>207</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I59" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>210</v>
+      </c>
+      <c r="D60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" t="s">
+        <v>211</v>
+      </c>
+      <c r="F60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" t="s">
+        <v>209</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I60" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61" t="s">
+        <v>215</v>
+      </c>
+      <c r="G61" t="s">
+        <v>214</v>
+      </c>
+      <c r="I61" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H63" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
+    <col min="10" max="10" width="31.21875" customWidth="1"/>
+    <col min="11" max="11" width="29.21875" customWidth="1"/>
+    <col min="12" max="12" width="31.109375" customWidth="1"/>
+    <col min="13" max="13" width="46" customWidth="1"/>
+    <col min="14" max="14" width="51.5546875" customWidth="1"/>
+    <col min="15" max="15" width="27.88671875" customWidth="1"/>
+    <col min="16" max="16" width="22.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
+      </c>
+      <c r="F2" t="s">
+        <v>232</v>
       </c>
       <c r="G2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N2" t="s">
+        <v>239</v>
+      </c>
+      <c r="O2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P2" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>223</v>
+      </c>
+      <c r="F3" t="s">
+        <v>232</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" t="s">
-        <v>217</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" t="s">
-        <v>135</v>
-      </c>
-      <c r="G33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>136</v>
-      </c>
-      <c r="B34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G35" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" t="s">
-        <v>141</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>162</v>
-      </c>
-      <c r="B37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" t="s">
-        <v>142</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>162</v>
-      </c>
-      <c r="B38" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" t="s">
-        <v>143</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G38" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>162</v>
-      </c>
-      <c r="B39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" t="s">
-        <v>171</v>
-      </c>
-      <c r="D39" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" t="s">
-        <v>145</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G40" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" t="s">
-        <v>173</v>
-      </c>
-      <c r="D41" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" t="s">
-        <v>147</v>
-      </c>
-      <c r="G42" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G43" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" t="s">
-        <v>149</v>
-      </c>
-      <c r="C44" t="s">
-        <v>179</v>
-      </c>
-      <c r="D44" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" t="s">
-        <v>149</v>
-      </c>
-      <c r="G44" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" t="s">
-        <v>180</v>
-      </c>
-      <c r="D45" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" t="s">
-        <v>150</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" t="s">
-        <v>181</v>
-      </c>
-      <c r="D46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" t="s">
-        <v>151</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G46" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>162</v>
-      </c>
-      <c r="B47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" t="s">
-        <v>152</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G47" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>162</v>
-      </c>
-      <c r="B48" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" t="s">
-        <v>183</v>
-      </c>
-      <c r="D48" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" t="s">
-        <v>153</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G48" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" t="s">
-        <v>184</v>
-      </c>
-      <c r="D49" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" t="s">
-        <v>154</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G49" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" t="s">
-        <v>185</v>
-      </c>
-      <c r="D50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" t="s">
-        <v>155</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G50" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>162</v>
-      </c>
-      <c r="B51" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" t="s">
-        <v>193</v>
-      </c>
-      <c r="D51" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" t="s">
-        <v>194</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G51" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>162</v>
-      </c>
-      <c r="B52" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" t="s">
-        <v>186</v>
-      </c>
-      <c r="D52" t="s">
-        <v>125</v>
-      </c>
-      <c r="E52" t="s">
-        <v>157</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G52" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" t="s">
-        <v>187</v>
-      </c>
-      <c r="D53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53" t="s">
-        <v>158</v>
-      </c>
-      <c r="G53" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>162</v>
-      </c>
-      <c r="B54" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" t="s">
-        <v>188</v>
-      </c>
-      <c r="D54" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" t="s">
-        <v>159</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G54" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" t="s">
-        <v>160</v>
-      </c>
-      <c r="C55" t="s">
-        <v>189</v>
-      </c>
-      <c r="D55" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" t="s">
-        <v>160</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G55" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" t="s">
-        <v>161</v>
-      </c>
-      <c r="C56" t="s">
-        <v>190</v>
-      </c>
-      <c r="D56" t="s">
-        <v>125</v>
-      </c>
-      <c r="E56" t="s">
-        <v>161</v>
-      </c>
-      <c r="G56" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>197</v>
-      </c>
-      <c r="B57" t="s">
-        <v>197</v>
-      </c>
-      <c r="C57" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" t="s">
-        <v>199</v>
-      </c>
-      <c r="G57" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>200</v>
-      </c>
-      <c r="B58" t="s">
-        <v>201</v>
-      </c>
-      <c r="C58" t="s">
-        <v>202</v>
-      </c>
-      <c r="D58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" t="s">
-        <v>203</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G58" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>205</v>
-      </c>
-      <c r="B59" t="s">
-        <v>205</v>
-      </c>
-      <c r="C59" t="s">
-        <v>206</v>
-      </c>
-      <c r="D59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" t="s">
-        <v>207</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G59" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>210</v>
-      </c>
-      <c r="B60" t="s">
-        <v>210</v>
-      </c>
-      <c r="C60" t="s">
-        <v>211</v>
-      </c>
-      <c r="D60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" t="s">
-        <v>209</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G60" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B61" t="s">
-        <v>212</v>
-      </c>
-      <c r="C61" t="s">
-        <v>213</v>
-      </c>
-      <c r="D61" t="s">
-        <v>215</v>
-      </c>
-      <c r="E61" t="s">
-        <v>214</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="H3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>234</v>
+      </c>
+      <c r="M3" t="s">
+        <v>236</v>
+      </c>
+      <c r="N3" t="s">
+        <v>244</v>
+      </c>
+      <c r="O3" t="s">
+        <v>238</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" t="s">
         <v>218</v>
       </c>
     </row>

--- a/target/classes/testdata.xlsx
+++ b/target/classes/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18792" windowHeight="3876" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18792" windowHeight="3876" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -1632,9 +1632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43:I59"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3357,7 +3357,7 @@
         <v>103</v>
       </c>
       <c r="I60" t="s">
-        <v>218</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -3396,8 +3396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/target/classes/testdata.xlsx
+++ b/target/classes/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18792" windowHeight="3876" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18792" windowHeight="3876" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="250">
   <si>
     <t>UserName</t>
   </si>
@@ -754,6 +754,21 @@
   </si>
   <si>
     <t xml:space="preserve"> //*[@id="mgt_fees_data_table"]/tbody/tr[last()]/td</t>
+  </si>
+  <si>
+    <t>DoubleClick Reports</t>
+  </si>
+  <si>
+    <t>ApplyFeesfromcodes</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1302,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1632,9 +1647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I60"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3383,7 +3398,7 @@
         <v>214</v>
       </c>
       <c r="I61" t="s">
-        <v>218</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3394,29 +3409,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.21875" customWidth="1"/>
     <col min="4" max="4" width="29.44140625" customWidth="1"/>
     <col min="5" max="8" width="15.5546875" customWidth="1"/>
     <col min="9" max="9" width="29.6640625" customWidth="1"/>
     <col min="10" max="10" width="31.21875" customWidth="1"/>
-    <col min="11" max="11" width="29.21875" customWidth="1"/>
-    <col min="12" max="12" width="31.109375" customWidth="1"/>
-    <col min="13" max="13" width="46" customWidth="1"/>
-    <col min="14" max="14" width="51.5546875" customWidth="1"/>
-    <col min="15" max="15" width="27.88671875" customWidth="1"/>
-    <col min="16" max="16" width="22.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
+    <col min="11" max="12" width="29.21875" customWidth="1"/>
+    <col min="13" max="13" width="31.109375" customWidth="1"/>
+    <col min="14" max="14" width="46" customWidth="1"/>
+    <col min="15" max="15" width="51.5546875" customWidth="1"/>
+    <col min="16" max="16" width="27.88671875" customWidth="1"/>
+    <col min="17" max="17" width="22.88671875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>242</v>
       </c>
@@ -3451,25 +3467,31 @@
         <v>231</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S1" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>240</v>
       </c>
@@ -3477,7 +3499,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
         <v>221</v>
@@ -3504,25 +3526,31 @@
         <v>51</v>
       </c>
       <c r="L2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M2" t="s">
         <v>225</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>235</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>239</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>237</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>241</v>
       </c>
-      <c r="Q2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>240</v>
       </c>
@@ -3530,7 +3558,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
         <v>221</v>
@@ -3557,20 +3585,26 @@
         <v>51</v>
       </c>
       <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>234</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>236</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>244</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>238</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" t="s">
-        <v>218</v>
+      <c r="Q3" s="3"/>
+      <c r="R3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
